--- a/info/Manuals/циклограмма.xlsx
+++ b/info/Manuals/циклограмма.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\water_treatment_controller\info\Manuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A204AA-ABF2-4027-9AE3-F96697AF6A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F4AE3DA-F827-4479-80C3-AC0E051650C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -706,7 +706,7 @@
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="10" t="s">
